--- a/Testing-Phase1/signup.xlsx
+++ b/Testing-Phase1/signup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>user1</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>C:\Users\MariamAshraf\Desktop\professionLicense.png</t>
+  </si>
+  <si>
+    <t>123456@zA</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user8@gmail.com</t>
+  </si>
+  <si>
+    <t>123456@zE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven </t>
+  </si>
+  <si>
+    <t>user9@gmail.com</t>
+  </si>
+  <si>
+    <t>'123456@zE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steve </t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -460,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +522,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3">
         <v>33188</v>
@@ -530,10 +560,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3">
         <v>33188</v>
@@ -735,6 +765,105 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>120000008</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>33188</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>12000009</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3">
+        <v>33188</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>120000010</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>33188</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -747,8 +876,11 @@
     <hyperlink ref="C5" r:id="rId5"/>
     <hyperlink ref="C6" r:id="rId6"/>
     <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Testing-Phase1/signup.xlsx
+++ b/Testing-Phase1/signup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>male</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Jack</t>
   </si>
   <si>
-    <t>user1@y.c</t>
-  </si>
-  <si>
     <t>Abc@123</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>12345689123456</t>
   </si>
   <si>
-    <t>user2@y.c</t>
-  </si>
-  <si>
     <t>11-11-1999</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>user3@y.c</t>
-  </si>
-  <si>
     <t>01200000001</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>11-12-1992</t>
   </si>
   <si>
-    <t>user4@y.c</t>
-  </si>
-  <si>
     <t>01200000004</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>Abc@12</t>
   </si>
   <si>
-    <t>uder4@y.c</t>
-  </si>
-  <si>
     <t>01200000007</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>no license</t>
   </si>
   <si>
-    <t>user10@y.c</t>
-  </si>
-  <si>
     <t>01200000010</t>
   </si>
   <si>
@@ -174,15 +156,9 @@
     <t>invalid mail</t>
   </si>
   <si>
-    <t>user12@y.c</t>
-  </si>
-  <si>
     <t>no blood type</t>
   </si>
   <si>
-    <t>no speciality with profession license data</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -214,6 +190,42 @@
   </si>
   <si>
     <t>12445689123456</t>
+  </si>
+  <si>
+    <t>user1@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user2@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user3@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user4@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user10@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user12@carePoint.misr</t>
+  </si>
+  <si>
+    <t>uder9@carePoint.misr</t>
+  </si>
+  <si>
+    <t>uder8@carePoint.misr</t>
+  </si>
+  <si>
+    <t>uder7@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user6@carePoint.misr</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>existing mail</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -570,13 +582,13 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -585,28 +597,28 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -614,19 +626,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -635,19 +647,19 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>7</v>
@@ -656,12 +668,12 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -673,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -691,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
@@ -706,27 +718,27 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -735,19 +747,19 @@
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>2</v>
@@ -756,27 +768,27 @@
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -785,19 +797,19 @@
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>2</v>
@@ -806,24 +818,24 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
@@ -835,19 +847,19 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>2</v>
@@ -856,27 +868,27 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -885,19 +897,19 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>2</v>
@@ -906,27 +918,27 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -935,19 +947,19 @@
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>2</v>
@@ -956,27 +968,27 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -985,19 +997,19 @@
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>2</v>
@@ -1006,27 +1018,27 @@
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1035,19 +1047,19 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>2</v>
@@ -1056,27 +1068,27 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -1085,19 +1097,19 @@
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>2</v>
@@ -1106,27 +1118,27 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -1135,19 +1147,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>2</v>
@@ -1156,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1167,16 +1179,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -1185,28 +1197,28 @@
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
